--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV_RPA\PRIMO\parse_yandex_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2FC965-74FA-4C27-80F7-5604EA78F674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10C7E87-FFCA-47FF-A2F6-CBA078A75CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="3615" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="-14160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>https://market.yandex.ru//passport.yandex.ru/auth?retpath=http%3A%2F%2Fmarket.yandex.ru%2Fcatalog--noutbuki%2F26895412%2Flist%3Fhid%3D91013%26how%3Daprice%26rs%3DeJx10T9Lw0AYBvAEWklPxOBQ-gfktVq4qc1d0ksjFIpDB13ED2A4k1QL1damFfwATs6Cm0sFJwc_gKuDOIkfoAjuunURY9pirsH5nt_7vHdHl3blL1lRpIwEF0_JreckWkOKIquQUUFVF3LLrtfkg3bfpnaXH3oUJCyh_DSCAAWR1Cyih4czX4Na1JPQVwQvgxz1RPAYcLxfF3wCElFPBV-AQtTrET-LGGDEKwwhQoDEbyFGspCNR8RdSlCK7yJOKUIxPkVcNw3p-JRJEQkji-GLqrm8w_0Bb9sO73UGvtcOoq2-d-zb_U4XhneAx9-nyAjJRqYO9YCszhM6Jb7He84RvD5w_PK5g9i06Pfp1Rz8VzRRwY9c36bw2_s5qggu1iY6-LhEeHQ1lNFmyFYyDWgEbH2e9Ty_2znxW2feX-P4cR-Pbu5lVd5WWLXpVg8o36PEpMxkzCK6YVllx7VMr8JdS6Mmc129ynRquoZmOpRqTNPKpEx-AIFuwdE%2C%26resale_goods%3Dresale_new%26glfilter%3D21194330%3A36779198%26loggedin%3D1</t>
   </si>
   <si>
     <t>https://market.yandex.ru/product--noutbuk-honor-magicbook-x-16-2024/59992039?hid=90401</t>
@@ -445,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,19 +455,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -571,11 +568,6 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV_RPA\PRIMO\parse_yandex_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10C7E87-FFCA-47FF-A2F6-CBA078A75CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24984DBA-3F11-417D-995E-3501DAB86145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2595" yWindow="-14160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,6 +140,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -159,7 +227,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="D3D5DB"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -445,10 +513,20 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,30 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV_RPA\PRIMO\parse_yandex_market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24984DBA-3F11-417D-995E-3501DAB86145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="-14160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="-13665" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>link</t>
   </si>
   <si>
+    <t>specifications</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>number_review</t>
+  </si>
+  <si>
+    <t>reviews</t>
+  </si>
+  <si>
     <t>https://market.yandex.ru/product--noutbuk-honor-magicbook-x-16-2024/59992039?hid=90401</t>
   </si>
   <si>
@@ -85,26 +98,156 @@
     <t>https://market.yandex.ru/product--noutbuk-azerty-az-1406-14-intel-n3350-1-1ghz-6gb-512gb-ssd/1823368329?hid=90401</t>
   </si>
   <si>
-    <t>specifications</t>
-  </si>
-  <si>
-    <t>photo</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t>number_review</t>
-  </si>
-  <si>
-    <t>reviev[-2:]</t>
+    <t/>
+  </si>
+  <si>
+    <t>Общие характеристикиБрендHUAWEIЛинейкаMateBook D16ТипноутбукОперационная системаWindows 11 HomeПроцессорIntel Core i5 12450HЛинейка процессораIntel Core i5Частота процессора2000Количество ядер процессора8Оперативная память8 ГБТип памятиLPDDR4XЧастота памяти4266 МГцДиагональ экрана16 "Разрешение экрана1920x1200Частота обновления экрана60 ГцТип покрытия экранаматовыйТип матрицы экранаIPSБеспроводные интерфейсыBluetooth, Wi-FiСтандарт Wi-Fi 802.11802.11 a/b/g/n/ac/axВерсия Bluetooth5.1ИнтерфейсыUSB 2.0 Type A, USB 3.2 Gen1 Type A, USB 3.2 Gen1 Type-С, выход HDMI, микрофон/наушники ComboВидеокартаIntel UHD GraphicsОбщий объем накопителей SSD512 ГБРаскладка клавиатурыанглийская/русскаяСканер отпечатков пальцевестьРазмеры (ДхШхГ)249x357x18.4 ммВес1.7 кгДополнительная информацияМатериал корпуса металл, Компактный металлический корпус, 16-дюймовый IPS-экран, Полезная площадь экрана 90%, Матовый экран, выход HDMI, Максимальная тактовая частота 4.4, Матовый экран, Кэш-память 12, Веб-камера 0.9</t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-mpic/3925628/2a0000018f70fde30783f97f093c47d14711/450x600</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ноутбук очень классный. тянет игры, блендер, всё гуд. на второй день использования экран просто погас и стал очень тусклым. возврат)
+Достоинства: ценаНедостатки: игры не очень тянетКомментарий: не удобный</t>
+  </si>
+  <si>
+    <t>Общие характеристикиБрендDIGMAТипноутбукОперационная системаWindows 11 ProПроцессорIntel Celeron N4000Линейка процессораIntel Celeron NЧастота процессора1100Количество ядер процессора2Ядро процессораGemini LakeОперативная память4 ГБТип памятиDDR4Частота памяти2400 МГцДиагональ экрана14 "Разрешение экрана1920x1080Частота обновления экрана60 ГцТип покрытия экранаматовыйТип матрицы экранаIPSНаличие микрофонадаБеспроводные интерфейсыBluetooth, Wi-FiСтандарт Wi-Fi 802.11802.11 b/g/nВерсия Bluetooth4.2ИнтерфейсыUSB 2.0 Type A, USB 3.0 Type A, выход mini HDMI, микрофон/наушники ComboВидеокартаIntel UHD Graphics 600Тип видеокартывстроеннаяОбъем видеопамятиSMAТип видеопамятиSMAОбщий объем накопителей SSD128 ГБОбщий объем накопителей HDDотсутствуетОптический приводнетПоддержка карт памятиmicroSDЕмкость аккумулятора4800 мА·чЕмкость аккумулятора (Вт·ч)36 Вт·чРаскладка клавиатурыанглийская/русскаяУстройства позиционированияTouchpadРазрешение веб-камеры1080pРазмеры (ДхШхГ)220x333x17 ммВес1.3 кгДополнительная информацияeMMC хранилище распаяно на материнской плате.</t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-mpic/4519349/2a00000190121d61af33e997019030e8c9f3/450x600</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ноутбук очень классный. тянет игры, блендер, всё гуд. на второй день использования экран просто погас и стал очень тусклым. возврат)
+Достоинства: ценаНедостатки: игры не очень тянетКомментарий: не удобный
+Достоинства: Диагональ ноутбука небольшаяНедостатки: Тормозит сильно
+Недостатки: Медленно работает</t>
+  </si>
+  <si>
+    <t>Общие характеристикиБрендNotebookТипноутбукОперационная системаWindows 10 ProПроцессорIntel Celeron J4125Количество ядер процессора4Оперативная память8 ГБДиагональ экрана14.1 "Разрешение экрана1920x1080Беспроводные интерфейсыBluetooth, Wi-FiСтандарт Wi-Fi 802.11802.11acВерсия Bluetooth5.1ВидеокартаIntel UHD GraphicsТип видеокартывстроеннаяОбъем видеопамятиSMAОбщий объем накопителей SSD256 ГБПоддержка карт памятиSDЕмкость аккумулятора4000 мА·чРаскладка клавиатурыанглийская/русскаяВес1.38 кгДополнительная информацияПодойдет для повседневной работы или учебы, просмотра мультимедиа контента; Разъемы: DC, Jack 3.5 мм, miniHDMI</t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-mpic/12217350/2a0000018f050d9c085725d3ea7a854560e0/450x600</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ноутбук очень классный. тянет игры, блендер, всё гуд. на второй день использования экран просто погас и стал очень тусклым. возврат)
+Достоинства: ценаНедостатки: игры не очень тянетКомментарий: не удобный
+Достоинства: Диагональ ноутбука небольшаяНедостатки: Тормозит сильно
+Недостатки: Медленно работает
+Достоинства: НетНедостатки: Не активированная виндаКомментарий: Не покупать !!
+Достоинства: удобный, компактный, не тяжёлыйНедостатки: не активирован Windows</t>
+  </si>
+  <si>
+    <t>Общие характеристикиБрендIDROIDЛинейкаIntel Celeron JТипноутбукОперационная системаWindows 10 ProПроцессорIntel Celeron J4125Линейка процессораIntel CeleronКоличество ядер процессора4Оперативная память8 ГБТип памятиDDR4Частота памяти2000GHzДиагональ экрана14 "Разрешение экрана1920x1080Частота обновления экрана60 ГцТип покрытия экранаглянцевыйТип матрицы экранаIPSНаличие микрофонадаСтандарт Wi-Fi 802.11802.11 a/b/g/n/ac/axВерсия Bluetooth5.1Интерфейсывыход HDMIВидеокартаIntel HD Graphics 600Тип видеокартывстроеннаяОбъем видеопамятиSMAТип видеопамятиGDDR4Общий объем накопителей SSD256 ГБОптический приводнетВремя автономной работы6 чЕмкость аккумулятора4500 мА·чРаскладка клавиатурыРусская раскладкаУстройства позиционированияTouchpadРазрешение веб-камеры0.3 MPВес1.3 кг</t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-mpic/11918242/2a0000018fbe4f7274e04a7368ce3121b2aa/450x600</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ноутбук очень классный. тянет игры, блендер, всё гуд. на второй день использования экран просто погас и стал очень тусклым. возврат)
+Достоинства: ценаНедостатки: игры не очень тянетКомментарий: не удобный
+Достоинства: Диагональ ноутбука небольшаяНедостатки: Тормозит сильно
+Недостатки: Медленно работает
+Достоинства: НетНедостатки: Не активированная виндаКомментарий: Не покупать !!
+Достоинства: удобный, компактный, не тяжёлыйНедостатки: не активирован Windows
+не саветую очень сильно грееться на зарядке и качество не очень
+Достоинства: топ за свои деньги. 4 ядра 8 гиговНедостатки: видюхе не хватает мощей.Комментарий: ноутбук приехал вскрытый. такое ощущение, что это брак и он чинился, а потом его перепродали. драйвера пришлось доустанавливать.</t>
+  </si>
+  <si>
+    <t>Общие характеристикиБрендAzertyТипноутбукОперационная системаWindows 10 ProПроцессорIntel Celeron N3350 (2 х 1.10 GHz)Оперативная память6Gb DDR4Диагональ экрана14 "Разрешение экрана1366x768ВидеокартаIntel HD Graphics 500Общий объем накопителей SSD128 ГБ</t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-mpic/5236535/img_id3014132448884043495.jpeg/450x600</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ноутбук очень классный. тянет игры, блендер, всё гуд. на второй день использования экран просто погас и стал очень тусклым. возврат)
+Достоинства: ценаНедостатки: игры не очень тянетКомментарий: не удобный
+Достоинства: Диагональ ноутбука небольшаяНедостатки: Тормозит сильно
+Недостатки: Медленно работает
+Достоинства: НетНедостатки: Не активированная виндаКомментарий: Не покупать !!
+Достоинства: удобный, компактный, не тяжёлыйНедостатки: не активирован Windows
+не саветую очень сильно грееться на зарядке и качество не очень
+Достоинства: топ за свои деньги. 4 ядра 8 гиговНедостатки: видюхе не хватает мощей.Комментарий: ноутбук приехал вскрытый. такое ощущение, что это брак и он чинился, а потом его перепродали. драйвера пришлось доустанавливать.
+Достоинства: Купили компьютер все хорошо но нет модуля и установлен виндовс 11 не работает в полной мере не сохраняет файлы свяжитесь со мной
+запрашивает пароль. месяц не трогал. ранее никакого пароля не ставил. Кто-нибудь сталкивался с такой проблемой!?</t>
+  </si>
+  <si>
+    <t>Общие характеристикиБрендAzertyТипноутбукОперационная системаWindows 10 ProПроцессорIntel Celeron N3350 (1.1 ГГц)Линейка процессораIntel CeleronЧастота процессора1100Количество ядер процессора2Оперативная память6 ГБТип памятиDDR4Диагональ экрана14 "Разрешение экрана1366x768Частота обновления экрана60 ГцТип покрытия экранаглянцевыйТип матрицы экранаTNБеспроводные интерфейсыBluetooth, Wi-FiСтандарт Wi-Fi 802.11802.11 b/g/nВерсия Bluetooth4.0Интерфейсы3.5 мм;USB 3.2;USB 2.0;miniHDMIВидеокартаIntel HD Graphics 500Тип видеокартывстроеннаяОбъем видеопамяти1 ГБТип видеопамятиSMAОбщий объем накопителей SSD128 ГБОбщий объем накопителей HDDотсутствуетОптический приводнетПоддержка карт памятиmicroSDВремя автономной работы6 чЕмкость аккумулятора4000 мА·чРаскладка клавиатурыанглийская/русскаяУстройства позиционированияTouchpadРазрешение веб-камеры960pРазмеры (ДхШхГ)218x328x25 ммВес1.18 кг</t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-mpic/1680954/2a00000190c153259b8e51d2fb434c0d1fc6/450x600</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Общие характеристикиБрендAzertyТипноутбукОперационная системаWindows 10 ProПроцессорIntel Celeron N3350 (2 х 1.10 GHz)Количество ядер процессора2Оперативная память6Gb DDR4Диагональ экрана14 "Разрешение экрана1366x768ВидеокартаIntel HD Graphics 500Общий объем накопителей SSD512 ГБ</t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-mpic/5236108/img_id4071296039013309733.jpeg/450x600</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ноутбук очень классный. тянет игры, блендер, всё гуд. на второй день использования экран просто погас и стал очень тусклым. возврат)
+Достоинства: ценаНедостатки: игры не очень тянетКомментарий: не удобный
+Достоинства: Диагональ ноутбука небольшаяНедостатки: Тормозит сильно
+Недостатки: Медленно работает
+Достоинства: НетНедостатки: Не активированная виндаКомментарий: Не покупать !!
+Достоинства: удобный, компактный, не тяжёлыйНедостатки: не активирован Windows
+не саветую очень сильно грееться на зарядке и качество не очень
+Достоинства: топ за свои деньги. 4 ядра 8 гиговНедостатки: видюхе не хватает мощей.Комментарий: ноутбук приехал вскрытый. такое ощущение, что это брак и он чинился, а потом его перепродали. драйвера пришлось доустанавливать.
+Достоинства: Купили компьютер все хорошо но нет модуля и установлен виндовс 11 не работает в полной мере не сохраняет файлы свяжитесь со мной
+запрашивает пароль. месяц не трогал. ранее никакого пароля не ставил. Кто-нибудь сталкивался с такой проблемой!?
+Достоинства: ценаНедостатки: довольно тормозной
+Достоинства: ценаНедостатки: Нет нормальной вентиляции, очень жестко греется, из за чего буквально через неделю начал тормозить и это очень печалит. 
+Долго грузят браузеры и запуск системы минимум минута, а то и триКомментарий: Если тупо для кино, или доков то, норм, но не более.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -121,13 +264,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -136,86 +273,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -224,10 +285,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="D3D5DB"/>
+        <a:sysClr val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -503,152 +564,568 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.00391" customWidth="1"/>
+    <col min="2" max="2" width="20.57422" customWidth="1"/>
+    <col min="3" max="3" width="17.00391" customWidth="1"/>
+    <col min="4" max="4" width="15.42188" customWidth="1"/>
+    <col min="5" max="5" width="17.71094" customWidth="1"/>
+    <col min="6" max="6" width="15.28125" customWidth="1"/>
+    <col min="7" max="7" width="14.14063" customWidth="1"/>
+    <col min="8" max="8" width="18.71094" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="22">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="23">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>20</v>
       </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>